--- a/data/example/Power_Demand_KInRows.xlsx
+++ b/data/example/Power_Demand_KInRows.xlsx
@@ -811,7 +811,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node for representative node i</t>
+          <t>Demand at node at node i</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -18685,7 +18685,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node for representative node i</t>
+          <t>Demand at node at node i</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>

--- a/data/example/Power_Demand_KInRows.xlsx
+++ b/data/example/Power_Demand_KInRows.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
@@ -923,47 +923,47 @@
       </c>
       <c r="G7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="H7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="J7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="K7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="L7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="M7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="N7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="O7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
     </row>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
@@ -18797,47 +18797,47 @@
       </c>
       <c r="G7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="H7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="J7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="K7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="L7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="M7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="N7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="O7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
     </row>

--- a/data/example/Power_Demand_KInRows.xlsx
+++ b/data/example/Power_Demand_KInRows.xlsx
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -592,7 +592,7 @@
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" min="4" max="4"/>
+    <col width="17.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
     <col width="11.2809375" customWidth="1" min="7" max="7"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour within rp</t>
+          <t>Representative time step within rp</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node at node i</t>
+          <t>Demand at this node i</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -18441,12 +18441,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18466,7 +18466,7 @@
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" min="4" max="4"/>
+    <col width="17.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
     <col width="11.2809375" customWidth="1" min="7" max="7"/>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -18670,7 +18670,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour within rp</t>
+          <t>Representative time step within rp</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
@@ -18685,7 +18685,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node at node i</t>
+          <t>Demand at this node i</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -36315,6 +36315,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/example/Power_Demand_KInRows.xlsx
+++ b/data/example/Power_Demand_KInRows.xlsx
@@ -606,7 +606,7 @@
     <col width="11.2809375" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
     <col width="11.2809375" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
